--- a/excels/config/server/shop/server_draw_acc.xlsx
+++ b/excels/config/server/shop/server_draw_acc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="server_draw_acc" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{E3B8706B-34A9-49EA-B1AA-44DBCC1E6C94}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{8917EBA9-5B08-43EC-81AD-C80EDCA6EC53}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/excels/config/server/shop/server_draw_acc.xlsx
+++ b/excels/config/server/shop/server_draw_acc.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="server_draw_acc" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_draw_acc!$C$1:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">server_draw_acc!$C$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>编号</t>
   </si>
@@ -56,7 +56,109 @@
     <t>item_id</t>
   </si>
   <si>
-    <t>1003_1</t>
+    <t>20011_1</t>
+  </si>
+  <si>
+    <t>3504_5</t>
+  </si>
+  <si>
+    <t>3505_5</t>
+  </si>
+  <si>
+    <t>3506_5</t>
+  </si>
+  <si>
+    <t>3507_5</t>
+  </si>
+  <si>
+    <t>3508_5</t>
+  </si>
+  <si>
+    <t>20029_1</t>
+  </si>
+  <si>
+    <t>1207_10</t>
+  </si>
+  <si>
+    <t>20107_1</t>
+  </si>
+  <si>
+    <t>1003_100000</t>
+  </si>
+  <si>
+    <t>1207_20</t>
+  </si>
+  <si>
+    <t>20105_1</t>
+  </si>
+  <si>
+    <t>1287_100</t>
+  </si>
+  <si>
+    <t>1207_30</t>
+  </si>
+  <si>
+    <t>1003_1000000</t>
+  </si>
+  <si>
+    <t>1207_50</t>
+  </si>
+  <si>
+    <t>20007_1</t>
+  </si>
+  <si>
+    <t>1003_500000</t>
+  </si>
+  <si>
+    <t>1279_100</t>
+  </si>
+  <si>
+    <t>1283_50</t>
+  </si>
+  <si>
+    <t>1207_100</t>
+  </si>
+  <si>
+    <t>1294_100000</t>
+  </si>
+  <si>
+    <t>3520_1</t>
+  </si>
+  <si>
+    <t>1294_200000</t>
+  </si>
+  <si>
+    <t>1003_2000000</t>
+  </si>
+  <si>
+    <t>20009_1</t>
+  </si>
+  <si>
+    <t>3519_1</t>
+  </si>
+  <si>
+    <t>3519_2</t>
+  </si>
+  <si>
+    <t>3519_3</t>
+  </si>
+  <si>
+    <t>3519_5</t>
+  </si>
+  <si>
+    <t>3522_1</t>
+  </si>
+  <si>
+    <t>3523_1</t>
+  </si>
+  <si>
+    <t>3524_1</t>
+  </si>
+  <si>
+    <t>3525_1</t>
+  </si>
+  <si>
+    <t>20010_1</t>
   </si>
 </sst>
 </file>
@@ -757,10 +859,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -992,7 +1094,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{8917EBA9-5B08-43EC-81AD-C80EDCA6EC53}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{662641EE-61ED-4950-9591-34A9BBBD01BD}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1260,10 +1362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1304,511 +1406,511 @@
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>150</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>200</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>300</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>400</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>500</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>600</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>700</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>800</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>900</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1100</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1300</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1400</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1600</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1700</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1800</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1900</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>64</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>96</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>128</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>160</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>190</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>220</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>250</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>280</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>320</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>370</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4">
-        <v>430</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>470</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>500</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>600</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>650</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5">
-        <v>750</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>800</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>830</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>900</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>950</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1050</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1250</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1300</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
       </c>
       <c r="C29" s="5">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="4">
-        <v>1850</v>
+        <v>2100</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
       </c>
       <c r="C31" s="5">
-        <v>1950</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
+        <v>2200</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="4">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
       </c>
       <c r="C33" s="5">
-        <v>2200</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>8</v>
+        <v>2400</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
       </c>
       <c r="C34" s="4">
-        <v>2350</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>8</v>
+        <v>2500</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
       </c>
       <c r="C35" s="5">
-        <v>2400</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
+        <v>2600</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
       </c>
       <c r="C36" s="4">
-        <v>2600</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>8</v>
+        <v>2700</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37" s="5">
-        <v>2700</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
+        <v>2800</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
       </c>
       <c r="C38" s="4">
-        <v>2850</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>8</v>
+        <v>2900</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A39" s="5">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="5">
@@ -1818,599 +1920,11 @@
         <v>3000</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4">
-        <v>3250</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A41" s="5">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5">
-        <v>3400</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3550</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5">
-        <v>3700</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3800</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A45" s="5">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45" s="5">
-        <v>4000</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4">
-        <v>4400</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A47" s="5">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47" s="5">
-        <v>4550</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A48" s="4">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4">
-        <v>4800</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A49" s="5">
-        <v>47</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5">
-        <v>5050</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A50" s="4">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4">
-        <v>5550</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A51" s="5">
-        <v>49</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51" s="5">
-        <v>5750</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A52" s="4">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="4">
-        <v>6150</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A53" s="5">
-        <v>51</v>
-      </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53" s="5">
-        <v>6800</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A54" s="4">
-        <v>52</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="4">
-        <v>7310</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A55" s="5">
-        <v>53</v>
-      </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55" s="5">
-        <v>7400</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A56" s="4">
-        <v>54</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="4">
-        <v>7810</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A57" s="5">
-        <v>55</v>
-      </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57" s="5">
-        <v>8200</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A58" s="4">
-        <v>56</v>
-      </c>
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-      <c r="C58" s="4">
-        <v>8310</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A59" s="5">
-        <v>57</v>
-      </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5">
-        <v>8800</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A60" s="4">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4">
-        <v>1</v>
-      </c>
-      <c r="C60" s="4">
-        <v>8810</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A61" s="5">
-        <v>59</v>
-      </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61" s="5">
-        <v>9120</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A62" s="4">
-        <v>60</v>
-      </c>
-      <c r="B62" s="4">
-        <v>1</v>
-      </c>
-      <c r="C62" s="4">
-        <v>9310</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A63" s="5">
-        <v>61</v>
-      </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5">
-        <v>9400</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A64" s="4">
-        <v>62</v>
-      </c>
-      <c r="B64" s="4">
-        <v>1</v>
-      </c>
-      <c r="C64" s="4">
-        <v>9810</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A65" s="5">
-        <v>63</v>
-      </c>
-      <c r="B65" s="5">
-        <v>1</v>
-      </c>
-      <c r="C65" s="5">
-        <v>10000</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A66" s="4">
-        <v>64</v>
-      </c>
-      <c r="B66" s="4">
-        <v>1</v>
-      </c>
-      <c r="C66" s="4">
-        <v>10310</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A67" s="5">
-        <v>65</v>
-      </c>
-      <c r="B67" s="5">
-        <v>1</v>
-      </c>
-      <c r="C67" s="5">
-        <v>10400</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A68" s="4">
-        <v>66</v>
-      </c>
-      <c r="B68" s="4">
-        <v>1</v>
-      </c>
-      <c r="C68" s="4">
-        <v>10810</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A69" s="5">
-        <v>67</v>
-      </c>
-      <c r="B69" s="5">
-        <v>1</v>
-      </c>
-      <c r="C69" s="5">
-        <v>11100</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A70" s="4">
-        <v>68</v>
-      </c>
-      <c r="B70" s="4">
-        <v>1</v>
-      </c>
-      <c r="C70" s="4">
-        <v>11310</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A71" s="5">
-        <v>69</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71" s="5">
-        <v>11810</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A72" s="4">
-        <v>70</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1</v>
-      </c>
-      <c r="C72" s="4">
-        <v>12310</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A73" s="5">
-        <v>71</v>
-      </c>
-      <c r="B73" s="5">
-        <v>1</v>
-      </c>
-      <c r="C73" s="5">
-        <v>12400</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A74" s="4">
-        <v>72</v>
-      </c>
-      <c r="B74" s="4">
-        <v>1</v>
-      </c>
-      <c r="C74" s="4">
-        <v>12810</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A75" s="5">
-        <v>73</v>
-      </c>
-      <c r="B75" s="5">
-        <v>1</v>
-      </c>
-      <c r="C75" s="5">
-        <v>13000</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A76" s="4">
-        <v>74</v>
-      </c>
-      <c r="B76" s="4">
-        <v>1</v>
-      </c>
-      <c r="C76" s="4">
-        <v>13310</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A77" s="5">
-        <v>75</v>
-      </c>
-      <c r="B77" s="5">
-        <v>1</v>
-      </c>
-      <c r="C77" s="5">
-        <v>13810</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A78" s="4">
-        <v>76</v>
-      </c>
-      <c r="B78" s="4">
-        <v>1</v>
-      </c>
-      <c r="C78" s="4">
-        <v>14000</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A79" s="5">
-        <v>77</v>
-      </c>
-      <c r="B79" s="5">
-        <v>1</v>
-      </c>
-      <c r="C79" s="5">
-        <v>14310</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A80" s="4">
-        <v>78</v>
-      </c>
-      <c r="B80" s="4">
-        <v>1</v>
-      </c>
-      <c r="C80" s="4">
-        <v>14810</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A81" s="5">
-        <v>79</v>
-      </c>
-      <c r="B81" s="5">
-        <v>1</v>
-      </c>
-      <c r="C81" s="5">
-        <v>15000</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C81" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C39" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="C2:G83">
